--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_EQ组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.4.1 新特性|Fix Bug'!$A$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.4.1 新特性|Fix Bug'!$A$1:$S$40</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -384,59 +379,81 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda数据分析定时器性能优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了官网找房根据房源编号集中式搜索不正确的问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了品牌的缓存及其它策略，做到实时同步</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎中文分词的排序优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了租客修改密码的策略，防止安全漏洞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网域名放开限制后，针对放开的限制做无效域名拦截处理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>租客APP新增用户行为记录元素</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoda数据分析定时器性能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复了官网找房根据房源编号集中式搜索不正确的问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化了品牌的缓存及其它策略，做到实时同步</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索引擎中文分词的排序优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化了租客修改密码的策略，防止安全漏洞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网域名放开限制后，针对放开的限制做无效域名拦截处理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
+    <t>测试通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -729,6 +746,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -748,7 +833,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1068,14 +1153,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="28" customWidth="1"/>
@@ -1089,7 +1175,8 @@
     <col min="10" max="10" width="15.25" style="10" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
-    <col min="13" max="14" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="11" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
@@ -1099,7 +1186,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1190,7 +1277,9 @@
       <c r="K2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M2" s="20"/>
       <c r="N2" s="16"/>
       <c r="O2" s="20"/>
@@ -1200,7 +1289,7 @@
       <c r="S2" s="23"/>
       <c r="T2" s="24"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1232,17 +1321,25 @@
       <c r="K3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="20"/>
+      <c r="L3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="23"/>
       <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1274,17 +1371,25 @@
       <c r="K4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1316,7 +1421,9 @@
       <c r="K5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M5" s="20"/>
       <c r="N5" s="16"/>
       <c r="O5" s="20"/>
@@ -1326,7 +1433,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1358,17 +1465,25 @@
       <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="20"/>
+      <c r="L6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1400,17 +1515,25 @@
       <c r="K7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="20"/>
+      <c r="L7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="23"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1442,17 +1565,25 @@
       <c r="K8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="L8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1484,17 +1615,25 @@
       <c r="K9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="20"/>
+      <c r="L9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="23"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1526,17 +1665,25 @@
       <c r="K10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="20"/>
+      <c r="L10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="23"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1568,17 +1715,25 @@
       <c r="K11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="20"/>
+      <c r="L11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="23"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1610,17 +1765,25 @@
       <c r="K12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="20"/>
+      <c r="L12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="23"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1652,17 +1815,25 @@
       <c r="K13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="20"/>
+      <c r="L13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1694,17 +1865,25 @@
       <c r="K14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="20"/>
+      <c r="L14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1736,17 +1915,25 @@
       <c r="K15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1778,17 +1965,25 @@
       <c r="K16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="20"/>
+      <c r="L16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1820,7 +2015,9 @@
       <c r="K17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M17" s="20"/>
       <c r="N17" s="16"/>
       <c r="O17" s="20"/>
@@ -1830,7 +2027,7 @@
       <c r="S17" s="23"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -1862,17 +2059,25 @@
       <c r="K18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="20"/>
+      <c r="L18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -1904,17 +2109,25 @@
       <c r="K19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="20"/>
+      <c r="L19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="23"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -1946,17 +2159,25 @@
       <c r="K20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="20"/>
+      <c r="L20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="23"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -1988,17 +2209,25 @@
       <c r="K21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="20"/>
+      <c r="L21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2030,17 +2259,25 @@
       <c r="K22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="20"/>
+      <c r="L22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="23"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2072,7 +2309,9 @@
       <c r="K23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M23" s="20"/>
       <c r="N23" s="16"/>
       <c r="O23" s="20"/>
@@ -2082,7 +2321,7 @@
       <c r="S23" s="23"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2114,17 +2353,25 @@
       <c r="K24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="20"/>
+      <c r="L24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="23"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2156,17 +2403,25 @@
       <c r="K25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="20"/>
+      <c r="L25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="23"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2198,7 +2453,9 @@
       <c r="K26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M26" s="20"/>
       <c r="N26" s="16"/>
       <c r="O26" s="20"/>
@@ -2208,7 +2465,7 @@
       <c r="S26" s="23"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2240,7 +2497,9 @@
       <c r="K27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M27" s="20"/>
       <c r="N27" s="16"/>
       <c r="O27" s="20"/>
@@ -2250,7 +2509,7 @@
       <c r="S27" s="23"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2282,7 +2541,9 @@
       <c r="K28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M28" s="20"/>
       <c r="N28" s="16"/>
       <c r="O28" s="20"/>
@@ -2292,7 +2553,7 @@
       <c r="S28" s="23"/>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2324,7 +2585,9 @@
       <c r="K29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M29" s="20"/>
       <c r="N29" s="16"/>
       <c r="O29" s="20"/>
@@ -2334,7 +2597,7 @@
       <c r="S29" s="23"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2366,17 +2629,25 @@
       <c r="K30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="15"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="20"/>
+      <c r="L30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="23"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2408,7 +2679,9 @@
       <c r="K31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M31" s="20"/>
       <c r="N31" s="16"/>
       <c r="O31" s="20"/>
@@ -2418,7 +2691,7 @@
       <c r="S31" s="23"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2450,7 +2723,9 @@
       <c r="K32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M32" s="20"/>
       <c r="N32" s="16"/>
       <c r="O32" s="20"/>
@@ -2460,7 +2735,7 @@
       <c r="S32" s="23"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2492,7 +2767,9 @@
       <c r="K33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M33" s="20"/>
       <c r="N33" s="16"/>
       <c r="O33" s="20"/>
@@ -2502,12 +2779,12 @@
       <c r="S33" s="23"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>45</v>
@@ -2534,7 +2811,9 @@
       <c r="K34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="15"/>
+      <c r="L34" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M34" s="20"/>
       <c r="N34" s="16"/>
       <c r="O34" s="20"/>
@@ -2544,18 +2823,18 @@
       <c r="S34" s="23"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>20</v>
@@ -2576,7 +2855,9 @@
       <c r="K35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L35" s="15"/>
+      <c r="L35" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="M35" s="20"/>
       <c r="N35" s="16"/>
       <c r="O35" s="20"/>
@@ -2586,18 +2867,18 @@
       <c r="S35" s="23"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>20</v>
@@ -2613,27 +2894,35 @@
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="20"/>
+      <c r="L36" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="23"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>44</v>
@@ -2660,7 +2949,9 @@
       <c r="K37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L37" s="15"/>
+      <c r="L37" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="M37" s="20"/>
       <c r="N37" s="16"/>
       <c r="O37" s="20"/>
@@ -2670,12 +2961,12 @@
       <c r="S37" s="23"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>45</v>
@@ -2697,12 +2988,14 @@
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="15"/>
+      <c r="L38" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="M38" s="20"/>
       <c r="N38" s="16"/>
       <c r="O38" s="20"/>
@@ -2712,12 +3005,12 @@
       <c r="S38" s="23"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>45</v>
@@ -2744,7 +3037,9 @@
       <c r="K39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="15"/>
+      <c r="L39" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="M39" s="20"/>
       <c r="N39" s="16"/>
       <c r="O39" s="20"/>
@@ -2754,18 +3049,18 @@
       <c r="S39" s="23"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>20</v>
@@ -2786,7 +3081,9 @@
       <c r="K40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="15"/>
+      <c r="L40" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="M40" s="20"/>
       <c r="N40" s="16"/>
       <c r="O40" s="20"/>
@@ -2796,7 +3093,7 @@
       <c r="S40" s="23"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="17"/>
       <c r="B41" s="27"/>
       <c r="C41" s="17"/>
@@ -2817,7 +3114,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="17"/>
       <c r="B42" s="27"/>
       <c r="C42" s="17"/>
@@ -2838,7 +3135,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="17"/>
       <c r="B43" s="27"/>
       <c r="C43" s="17"/>
@@ -2859,7 +3156,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="17"/>
       <c r="B44" s="27"/>
       <c r="C44" s="17"/>
@@ -2880,7 +3177,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="17"/>
       <c r="B45" s="27"/>
       <c r="C45" s="17"/>
@@ -2901,7 +3198,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="17"/>
       <c r="B46" s="27"/>
       <c r="C46" s="17"/>
@@ -2922,7 +3219,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="17"/>
       <c r="B47" s="27"/>
       <c r="C47" s="17"/>
@@ -2943,7 +3240,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="17"/>
       <c r="B48" s="27"/>
       <c r="C48" s="17"/>
@@ -2964,7 +3261,7 @@
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="17"/>
       <c r="B49" s="27"/>
       <c r="C49" s="17"/>
@@ -2985,7 +3282,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="17"/>
       <c r="B50" s="27"/>
       <c r="C50" s="17"/>
@@ -3006,7 +3303,7 @@
       <c r="R50" s="17"/>
       <c r="S50" s="18"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="17"/>
       <c r="B51" s="27"/>
       <c r="C51" s="17"/>
@@ -3027,7 +3324,7 @@
       <c r="R51" s="17"/>
       <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="17"/>
       <c r="B52" s="27"/>
       <c r="C52" s="17"/>
@@ -3048,7 +3345,7 @@
       <c r="R52" s="17"/>
       <c r="S52" s="18"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="17"/>
       <c r="B53" s="27"/>
       <c r="C53" s="17"/>
@@ -3069,7 +3366,7 @@
       <c r="R53" s="17"/>
       <c r="S53" s="18"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="17"/>
       <c r="B54" s="27"/>
       <c r="C54" s="17"/>
@@ -3090,7 +3387,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="18"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="17"/>
       <c r="B55" s="27"/>
       <c r="C55" s="17"/>
@@ -3111,7 +3408,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="18"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="17"/>
       <c r="B56" s="27"/>
       <c r="C56" s="17"/>
@@ -3132,7 +3429,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="18"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="17"/>
       <c r="B57" s="27"/>
       <c r="C57" s="17"/>
@@ -3153,7 +3450,7 @@
       <c r="R57" s="17"/>
       <c r="S57" s="18"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="17"/>
       <c r="B58" s="27"/>
       <c r="C58" s="17"/>
@@ -3174,7 +3471,7 @@
       <c r="R58" s="17"/>
       <c r="S58" s="18"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="17"/>
       <c r="B59" s="27"/>
       <c r="C59" s="17"/>
@@ -3195,7 +3492,7 @@
       <c r="R59" s="17"/>
       <c r="S59" s="18"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="17"/>
       <c r="B60" s="27"/>
       <c r="C60" s="17"/>
@@ -3216,7 +3513,7 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="17"/>
       <c r="B61" s="27"/>
       <c r="C61" s="17"/>
@@ -3237,7 +3534,7 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="17"/>
       <c r="B62" s="27"/>
       <c r="C62" s="17"/>
@@ -3258,7 +3555,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="17"/>
       <c r="B63" s="27"/>
       <c r="C63" s="17"/>
@@ -3279,7 +3576,7 @@
       <c r="R63" s="17"/>
       <c r="S63" s="18"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="17"/>
       <c r="B64" s="27"/>
       <c r="C64" s="17"/>
@@ -3300,7 +3597,7 @@
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="17"/>
       <c r="B65" s="27"/>
       <c r="C65" s="17"/>
@@ -3321,7 +3618,7 @@
       <c r="R65" s="17"/>
       <c r="S65" s="18"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="17"/>
       <c r="B66" s="27"/>
       <c r="C66" s="17"/>
@@ -3342,7 +3639,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="18"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="17"/>
       <c r="B67" s="27"/>
       <c r="C67" s="17"/>
@@ -3363,7 +3660,7 @@
       <c r="R67" s="17"/>
       <c r="S67" s="18"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="17"/>
       <c r="B68" s="27"/>
       <c r="C68" s="17"/>
@@ -3384,7 +3681,7 @@
       <c r="R68" s="17"/>
       <c r="S68" s="18"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="17"/>
       <c r="B69" s="27"/>
       <c r="C69" s="17"/>
@@ -3405,7 +3702,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="18"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="17"/>
       <c r="B70" s="27"/>
       <c r="C70" s="17"/>
@@ -3426,7 +3723,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="18"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="17"/>
       <c r="B71" s="27"/>
       <c r="C71" s="17"/>
@@ -3447,7 +3744,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="18"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="17"/>
       <c r="B72" s="27"/>
       <c r="C72" s="17"/>
@@ -3468,7 +3765,7 @@
       <c r="R72" s="17"/>
       <c r="S72" s="18"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="17"/>
       <c r="B73" s="27"/>
       <c r="C73" s="17"/>
@@ -3489,7 +3786,7 @@
       <c r="R73" s="17"/>
       <c r="S73" s="18"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="17"/>
       <c r="B74" s="27"/>
       <c r="C74" s="17"/>
@@ -3510,7 +3807,7 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="17"/>
       <c r="B75" s="27"/>
       <c r="C75" s="17"/>
@@ -3531,7 +3828,7 @@
       <c r="R75" s="17"/>
       <c r="S75" s="18"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="17"/>
       <c r="B76" s="27"/>
       <c r="C76" s="17"/>
@@ -3552,7 +3849,7 @@
       <c r="R76" s="17"/>
       <c r="S76" s="18"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="17"/>
       <c r="B77" s="27"/>
       <c r="C77" s="17"/>
@@ -3573,7 +3870,7 @@
       <c r="R77" s="17"/>
       <c r="S77" s="18"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="17"/>
       <c r="B78" s="27"/>
       <c r="C78" s="17"/>
@@ -3594,7 +3891,7 @@
       <c r="R78" s="17"/>
       <c r="S78" s="18"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="17"/>
       <c r="B79" s="27"/>
       <c r="C79" s="17"/>
@@ -3615,7 +3912,7 @@
       <c r="R79" s="17"/>
       <c r="S79" s="18"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="17"/>
       <c r="B80" s="27"/>
       <c r="C80" s="17"/>
@@ -3636,7 +3933,7 @@
       <c r="R80" s="17"/>
       <c r="S80" s="18"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="17"/>
       <c r="B81" s="27"/>
       <c r="C81" s="17"/>
@@ -3657,7 +3954,7 @@
       <c r="R81" s="17"/>
       <c r="S81" s="18"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="17"/>
       <c r="B82" s="27"/>
       <c r="C82" s="17"/>
@@ -3678,7 +3975,7 @@
       <c r="R82" s="17"/>
       <c r="S82" s="18"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="17"/>
       <c r="B83" s="27"/>
       <c r="C83" s="17"/>
@@ -3699,7 +3996,7 @@
       <c r="R83" s="17"/>
       <c r="S83" s="18"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="17"/>
       <c r="B84" s="27"/>
       <c r="C84" s="17"/>
@@ -3720,7 +4017,7 @@
       <c r="R84" s="17"/>
       <c r="S84" s="18"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="17"/>
       <c r="B85" s="27"/>
       <c r="C85" s="17"/>
@@ -3741,7 +4038,7 @@
       <c r="R85" s="17"/>
       <c r="S85" s="18"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="17"/>
       <c r="B86" s="27"/>
       <c r="C86" s="17"/>
@@ -3762,7 +4059,7 @@
       <c r="R86" s="17"/>
       <c r="S86" s="18"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="17"/>
       <c r="B87" s="27"/>
       <c r="C87" s="17"/>
@@ -3783,7 +4080,7 @@
       <c r="R87" s="17"/>
       <c r="S87" s="18"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="17"/>
       <c r="B88" s="27"/>
       <c r="C88" s="17"/>
@@ -3804,7 +4101,7 @@
       <c r="R88" s="17"/>
       <c r="S88" s="18"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="17"/>
       <c r="B89" s="27"/>
       <c r="C89" s="17"/>
@@ -3825,7 +4122,7 @@
       <c r="R89" s="17"/>
       <c r="S89" s="18"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="17"/>
       <c r="B90" s="27"/>
       <c r="C90" s="17"/>
@@ -3846,7 +4143,7 @@
       <c r="R90" s="17"/>
       <c r="S90" s="18"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="17"/>
       <c r="B91" s="27"/>
       <c r="C91" s="17"/>
@@ -3867,7 +4164,7 @@
       <c r="R91" s="17"/>
       <c r="S91" s="18"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="17"/>
       <c r="B92" s="27"/>
       <c r="C92" s="17"/>
@@ -3888,7 +4185,7 @@
       <c r="R92" s="17"/>
       <c r="S92" s="18"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="17"/>
       <c r="B93" s="27"/>
       <c r="C93" s="17"/>
@@ -3909,7 +4206,7 @@
       <c r="R93" s="17"/>
       <c r="S93" s="18"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="17"/>
       <c r="B94" s="27"/>
       <c r="C94" s="17"/>
@@ -3930,7 +4227,7 @@
       <c r="R94" s="17"/>
       <c r="S94" s="18"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="17"/>
       <c r="B95" s="27"/>
       <c r="C95" s="17"/>
@@ -3951,7 +4248,7 @@
       <c r="R95" s="17"/>
       <c r="S95" s="18"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="17"/>
       <c r="B96" s="27"/>
       <c r="C96" s="17"/>
@@ -3972,7 +4269,7 @@
       <c r="R96" s="17"/>
       <c r="S96" s="18"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="17"/>
       <c r="B97" s="27"/>
       <c r="C97" s="17"/>
@@ -3993,7 +4290,7 @@
       <c r="R97" s="17"/>
       <c r="S97" s="18"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="17"/>
       <c r="B98" s="27"/>
       <c r="C98" s="17"/>
@@ -4014,7 +4311,7 @@
       <c r="R98" s="17"/>
       <c r="S98" s="18"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="17"/>
       <c r="B99" s="27"/>
       <c r="C99" s="17"/>
@@ -4035,7 +4332,7 @@
       <c r="R99" s="17"/>
       <c r="S99" s="18"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="17"/>
       <c r="B100" s="27"/>
       <c r="C100" s="17"/>
@@ -4056,7 +4353,7 @@
       <c r="R100" s="17"/>
       <c r="S100" s="18"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="17"/>
       <c r="B101" s="27"/>
       <c r="C101" s="17"/>
@@ -4077,7 +4374,7 @@
       <c r="R101" s="17"/>
       <c r="S101" s="18"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="17"/>
       <c r="B102" s="27"/>
       <c r="C102" s="17"/>
@@ -4098,7 +4395,7 @@
       <c r="R102" s="17"/>
       <c r="S102" s="18"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="17"/>
       <c r="B103" s="27"/>
       <c r="C103" s="17"/>
@@ -4119,7 +4416,7 @@
       <c r="R103" s="17"/>
       <c r="S103" s="18"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="17"/>
       <c r="B104" s="27"/>
       <c r="C104" s="17"/>
@@ -4140,7 +4437,7 @@
       <c r="R104" s="17"/>
       <c r="S104" s="18"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="17"/>
       <c r="B105" s="27"/>
       <c r="C105" s="17"/>
@@ -4161,7 +4458,7 @@
       <c r="R105" s="17"/>
       <c r="S105" s="18"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="17"/>
       <c r="B106" s="27"/>
       <c r="C106" s="17"/>
@@ -4182,7 +4479,7 @@
       <c r="R106" s="17"/>
       <c r="S106" s="18"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="17"/>
       <c r="B107" s="27"/>
       <c r="C107" s="17"/>
@@ -4203,7 +4500,7 @@
       <c r="R107" s="17"/>
       <c r="S107" s="18"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="17"/>
       <c r="B108" s="27"/>
       <c r="C108" s="17"/>
@@ -4224,7 +4521,7 @@
       <c r="R108" s="17"/>
       <c r="S108" s="18"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="17"/>
       <c r="B109" s="27"/>
       <c r="C109" s="17"/>
@@ -4245,7 +4542,7 @@
       <c r="R109" s="17"/>
       <c r="S109" s="18"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="17"/>
       <c r="B110" s="27"/>
       <c r="C110" s="17"/>
@@ -4266,7 +4563,7 @@
       <c r="R110" s="17"/>
       <c r="S110" s="18"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="17"/>
       <c r="B111" s="27"/>
       <c r="C111" s="17"/>
@@ -4287,7 +4584,7 @@
       <c r="R111" s="17"/>
       <c r="S111" s="18"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="17"/>
       <c r="B112" s="27"/>
       <c r="C112" s="17"/>
@@ -4308,7 +4605,7 @@
       <c r="R112" s="17"/>
       <c r="S112" s="18"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="17"/>
       <c r="B113" s="27"/>
       <c r="C113" s="17"/>
@@ -4329,7 +4626,7 @@
       <c r="R113" s="17"/>
       <c r="S113" s="18"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="17"/>
       <c r="B114" s="27"/>
       <c r="C114" s="17"/>
@@ -4350,7 +4647,7 @@
       <c r="R114" s="17"/>
       <c r="S114" s="18"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="17"/>
       <c r="B115" s="27"/>
       <c r="C115" s="17"/>
@@ -4371,7 +4668,7 @@
       <c r="R115" s="17"/>
       <c r="S115" s="18"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="17"/>
       <c r="B116" s="27"/>
       <c r="C116" s="17"/>
@@ -4392,7 +4689,7 @@
       <c r="R116" s="17"/>
       <c r="S116" s="18"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="17"/>
       <c r="B117" s="27"/>
       <c r="C117" s="17"/>
@@ -4413,7 +4710,7 @@
       <c r="R117" s="17"/>
       <c r="S117" s="18"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="17"/>
       <c r="B118" s="27"/>
       <c r="C118" s="17"/>
@@ -4434,7 +4731,7 @@
       <c r="R118" s="17"/>
       <c r="S118" s="18"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="17"/>
       <c r="B119" s="27"/>
       <c r="C119" s="17"/>
@@ -4455,7 +4752,7 @@
       <c r="R119" s="17"/>
       <c r="S119" s="18"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="17"/>
       <c r="B120" s="27"/>
       <c r="C120" s="17"/>
@@ -4476,7 +4773,7 @@
       <c r="R120" s="17"/>
       <c r="S120" s="18"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="17"/>
       <c r="B121" s="27"/>
       <c r="C121" s="17"/>
@@ -4497,7 +4794,7 @@
       <c r="R121" s="17"/>
       <c r="S121" s="18"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="17"/>
       <c r="B122" s="27"/>
       <c r="C122" s="17"/>
@@ -4518,7 +4815,7 @@
       <c r="R122" s="17"/>
       <c r="S122" s="18"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="17"/>
       <c r="B123" s="27"/>
       <c r="C123" s="17"/>
@@ -4539,7 +4836,7 @@
       <c r="R123" s="17"/>
       <c r="S123" s="18"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="17"/>
       <c r="B124" s="27"/>
       <c r="C124" s="17"/>
@@ -4560,7 +4857,7 @@
       <c r="R124" s="17"/>
       <c r="S124" s="18"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="17"/>
       <c r="B125" s="27"/>
       <c r="C125" s="17"/>
@@ -4581,7 +4878,7 @@
       <c r="R125" s="17"/>
       <c r="S125" s="18"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="17"/>
       <c r="B126" s="27"/>
       <c r="C126" s="17"/>
@@ -4602,7 +4899,7 @@
       <c r="R126" s="17"/>
       <c r="S126" s="18"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="17"/>
       <c r="B127" s="27"/>
       <c r="C127" s="17"/>
@@ -4623,7 +4920,7 @@
       <c r="R127" s="17"/>
       <c r="S127" s="18"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="17"/>
       <c r="B128" s="27"/>
       <c r="C128" s="17"/>
@@ -4644,7 +4941,7 @@
       <c r="R128" s="17"/>
       <c r="S128" s="18"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="17"/>
       <c r="B129" s="27"/>
       <c r="C129" s="17"/>
@@ -4665,7 +4962,7 @@
       <c r="R129" s="17"/>
       <c r="S129" s="18"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="17"/>
       <c r="B130" s="27"/>
       <c r="C130" s="17"/>
@@ -4686,7 +4983,7 @@
       <c r="R130" s="17"/>
       <c r="S130" s="18"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="17"/>
       <c r="B131" s="27"/>
       <c r="C131" s="17"/>
@@ -4707,7 +5004,7 @@
       <c r="R131" s="17"/>
       <c r="S131" s="18"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="17"/>
       <c r="B132" s="27"/>
       <c r="C132" s="17"/>
@@ -4728,7 +5025,7 @@
       <c r="R132" s="17"/>
       <c r="S132" s="18"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="17"/>
       <c r="B133" s="27"/>
       <c r="C133" s="17"/>
@@ -4749,7 +5046,7 @@
       <c r="R133" s="17"/>
       <c r="S133" s="18"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="17"/>
       <c r="B134" s="27"/>
       <c r="C134" s="17"/>
@@ -4770,7 +5067,7 @@
       <c r="R134" s="17"/>
       <c r="S134" s="18"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="17"/>
       <c r="B135" s="27"/>
       <c r="C135" s="17"/>
@@ -4791,7 +5088,7 @@
       <c r="R135" s="17"/>
       <c r="S135" s="18"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="17"/>
       <c r="B136" s="27"/>
       <c r="C136" s="17"/>
@@ -4812,7 +5109,7 @@
       <c r="R136" s="17"/>
       <c r="S136" s="18"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="17"/>
       <c r="B137" s="27"/>
       <c r="C137" s="17"/>
@@ -4833,7 +5130,7 @@
       <c r="R137" s="17"/>
       <c r="S137" s="18"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="17"/>
       <c r="B138" s="27"/>
       <c r="C138" s="17"/>
@@ -4854,7 +5151,7 @@
       <c r="R138" s="17"/>
       <c r="S138" s="18"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="17"/>
       <c r="B139" s="27"/>
       <c r="C139" s="17"/>
@@ -4875,7 +5172,7 @@
       <c r="R139" s="17"/>
       <c r="S139" s="18"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="17"/>
       <c r="B140" s="27"/>
       <c r="C140" s="17"/>
@@ -4896,7 +5193,7 @@
       <c r="R140" s="17"/>
       <c r="S140" s="18"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="17"/>
       <c r="B141" s="27"/>
       <c r="C141" s="17"/>
@@ -4917,7 +5214,7 @@
       <c r="R141" s="17"/>
       <c r="S141" s="18"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="17"/>
       <c r="B142" s="27"/>
       <c r="C142" s="17"/>
@@ -4938,7 +5235,7 @@
       <c r="R142" s="17"/>
       <c r="S142" s="18"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="17"/>
       <c r="B143" s="27"/>
       <c r="C143" s="17"/>
@@ -4959,7 +5256,7 @@
       <c r="R143" s="17"/>
       <c r="S143" s="18"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="17"/>
       <c r="B144" s="27"/>
       <c r="C144" s="17"/>
@@ -4980,7 +5277,7 @@
       <c r="R144" s="17"/>
       <c r="S144" s="18"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="17"/>
       <c r="B145" s="27"/>
       <c r="C145" s="17"/>
@@ -5001,7 +5298,7 @@
       <c r="R145" s="17"/>
       <c r="S145" s="18"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="17"/>
       <c r="B146" s="27"/>
       <c r="C146" s="17"/>
@@ -5022,7 +5319,7 @@
       <c r="R146" s="17"/>
       <c r="S146" s="18"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="17"/>
       <c r="B147" s="27"/>
       <c r="C147" s="17"/>
@@ -5043,7 +5340,7 @@
       <c r="R147" s="17"/>
       <c r="S147" s="18"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="17"/>
       <c r="B148" s="27"/>
       <c r="C148" s="17"/>
@@ -5064,7 +5361,7 @@
       <c r="R148" s="17"/>
       <c r="S148" s="18"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="17"/>
       <c r="B149" s="27"/>
       <c r="C149" s="17"/>
@@ -5085,7 +5382,7 @@
       <c r="R149" s="17"/>
       <c r="S149" s="18"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="17"/>
       <c r="B150" s="27"/>
       <c r="C150" s="17"/>
@@ -5106,7 +5403,7 @@
       <c r="R150" s="17"/>
       <c r="S150" s="18"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="17"/>
       <c r="B151" s="27"/>
       <c r="C151" s="17"/>
@@ -5127,7 +5424,7 @@
       <c r="R151" s="17"/>
       <c r="S151" s="18"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="17"/>
       <c r="B152" s="27"/>
       <c r="C152" s="17"/>
@@ -5148,7 +5445,7 @@
       <c r="R152" s="17"/>
       <c r="S152" s="18"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="17"/>
       <c r="B153" s="27"/>
       <c r="C153" s="17"/>
@@ -5169,7 +5466,7 @@
       <c r="R153" s="17"/>
       <c r="S153" s="18"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="17"/>
       <c r="B154" s="27"/>
       <c r="C154" s="17"/>
@@ -5187,7 +5484,7 @@
       <c r="O154" s="18"/>
       <c r="S154" s="18"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="17"/>
       <c r="B155" s="27"/>
       <c r="C155" s="17"/>
@@ -5205,7 +5502,7 @@
       <c r="O155" s="18"/>
       <c r="S155" s="18"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="17"/>
       <c r="B156" s="27"/>
       <c r="C156" s="17"/>
@@ -5223,7 +5520,7 @@
       <c r="O156" s="18"/>
       <c r="S156" s="18"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="17"/>
       <c r="B157" s="27"/>
       <c r="C157" s="17"/>
@@ -5241,7 +5538,7 @@
       <c r="O157" s="18"/>
       <c r="S157" s="18"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="17"/>
       <c r="B158" s="27"/>
       <c r="C158" s="17"/>
@@ -5259,7 +5556,7 @@
       <c r="O158" s="18"/>
       <c r="S158" s="18"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="17"/>
       <c r="B159" s="27"/>
       <c r="C159" s="17"/>
@@ -5277,7 +5574,7 @@
       <c r="O159" s="18"/>
       <c r="S159" s="18"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="17"/>
       <c r="B160" s="27"/>
       <c r="C160" s="17"/>
@@ -5295,7 +5592,7 @@
       <c r="O160" s="18"/>
       <c r="S160" s="18"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="17"/>
       <c r="B161" s="27"/>
       <c r="C161" s="17"/>
@@ -5313,7 +5610,7 @@
       <c r="O161" s="18"/>
       <c r="S161" s="18"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="17"/>
       <c r="B162" s="27"/>
       <c r="C162" s="17"/>
@@ -5331,7 +5628,7 @@
       <c r="O162" s="18"/>
       <c r="S162" s="18"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="17"/>
       <c r="B163" s="27"/>
       <c r="C163" s="17"/>
@@ -5349,7 +5646,7 @@
       <c r="O163" s="18"/>
       <c r="S163" s="18"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="17"/>
       <c r="B164" s="27"/>
       <c r="C164" s="17"/>
@@ -5367,7 +5664,7 @@
       <c r="O164" s="18"/>
       <c r="S164" s="18"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="17"/>
       <c r="B165" s="27"/>
       <c r="C165" s="17"/>
@@ -5385,7 +5682,7 @@
       <c r="O165" s="18"/>
       <c r="S165" s="18"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="17"/>
       <c r="B166" s="27"/>
       <c r="C166" s="17"/>
@@ -5403,7 +5700,7 @@
       <c r="O166" s="18"/>
       <c r="S166" s="18"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="17"/>
       <c r="B167" s="27"/>
       <c r="C167" s="17"/>
@@ -5421,7 +5718,7 @@
       <c r="O167" s="18"/>
       <c r="S167" s="18"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="17"/>
       <c r="B168" s="27"/>
       <c r="C168" s="17"/>
@@ -5439,7 +5736,7 @@
       <c r="O168" s="18"/>
       <c r="S168" s="18"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="17"/>
       <c r="B169" s="27"/>
       <c r="C169" s="17"/>
@@ -5457,7 +5754,7 @@
       <c r="O169" s="18"/>
       <c r="S169" s="18"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="17"/>
       <c r="B170" s="27"/>
       <c r="C170" s="17"/>
@@ -5475,7 +5772,7 @@
       <c r="O170" s="18"/>
       <c r="S170" s="18"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="17"/>
       <c r="B171" s="27"/>
       <c r="C171" s="17"/>
@@ -5493,7 +5790,7 @@
       <c r="O171" s="18"/>
       <c r="S171" s="18"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="17"/>
       <c r="B172" s="27"/>
       <c r="C172" s="17"/>
@@ -5511,7 +5808,7 @@
       <c r="O172" s="18"/>
       <c r="S172" s="18"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="17"/>
       <c r="B173" s="27"/>
       <c r="C173" s="17"/>
@@ -5529,7 +5826,7 @@
       <c r="O173" s="18"/>
       <c r="S173" s="18"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="17"/>
       <c r="B174" s="27"/>
       <c r="C174" s="17"/>
@@ -5547,7 +5844,7 @@
       <c r="O174" s="18"/>
       <c r="S174" s="18"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="17"/>
       <c r="B175" s="27"/>
       <c r="C175" s="17"/>
@@ -5565,7 +5862,7 @@
       <c r="O175" s="18"/>
       <c r="S175" s="18"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="17"/>
       <c r="B176" s="27"/>
       <c r="C176" s="17"/>
@@ -5583,7 +5880,7 @@
       <c r="O176" s="18"/>
       <c r="S176" s="18"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="17"/>
       <c r="B177" s="27"/>
       <c r="C177" s="17"/>
@@ -5601,7 +5898,7 @@
       <c r="O177" s="18"/>
       <c r="S177" s="18"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="17"/>
       <c r="B178" s="27"/>
       <c r="C178" s="17"/>
@@ -5619,7 +5916,7 @@
       <c r="O178" s="18"/>
       <c r="S178" s="18"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="17"/>
       <c r="B179" s="27"/>
       <c r="C179" s="17"/>
@@ -5637,7 +5934,7 @@
       <c r="O179" s="18"/>
       <c r="S179" s="18"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="17"/>
       <c r="B180" s="27"/>
       <c r="C180" s="17"/>
@@ -5655,7 +5952,7 @@
       <c r="O180" s="18"/>
       <c r="S180" s="18"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="17"/>
       <c r="B181" s="27"/>
       <c r="C181" s="17"/>
@@ -5673,7 +5970,7 @@
       <c r="O181" s="18"/>
       <c r="S181" s="18"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="17"/>
       <c r="B182" s="27"/>
       <c r="C182" s="17"/>
@@ -5691,7 +5988,7 @@
       <c r="O182" s="18"/>
       <c r="S182" s="18"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="17"/>
       <c r="B183" s="27"/>
       <c r="C183" s="17"/>
@@ -5709,7 +6006,7 @@
       <c r="O183" s="18"/>
       <c r="S183" s="18"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="17"/>
       <c r="B184" s="27"/>
       <c r="C184" s="17"/>
@@ -5727,7 +6024,7 @@
       <c r="O184" s="18"/>
       <c r="S184" s="18"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="17"/>
       <c r="B185" s="27"/>
       <c r="C185" s="17"/>
@@ -5745,7 +6042,7 @@
       <c r="O185" s="18"/>
       <c r="S185" s="18"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="17"/>
       <c r="B186" s="27"/>
       <c r="C186" s="17"/>
@@ -5763,7 +6060,7 @@
       <c r="O186" s="18"/>
       <c r="S186" s="18"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="17"/>
       <c r="B187" s="27"/>
       <c r="C187" s="17"/>
@@ -5781,7 +6078,7 @@
       <c r="O187" s="18"/>
       <c r="S187" s="18"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="17"/>
       <c r="B188" s="27"/>
       <c r="C188" s="17"/>
@@ -5800,7 +6097,13 @@
       <c r="S188" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S2"/>
+  <autoFilter ref="A1:S40">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="周蓉"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -5808,14 +6111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5826,7 +6129,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -5852,7 +6155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5862,7 +6165,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5872,7 +6175,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5882,7 +6185,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5892,7 +6195,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5902,7 +6205,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5912,7 +6215,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5922,7 +6225,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5932,7 +6235,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5942,7 +6245,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5952,7 +6255,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5962,7 +6265,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5972,7 +6275,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5982,7 +6285,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5992,7 +6295,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6002,7 +6305,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6012,7 +6315,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6022,7 +6325,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_EQ组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_EQ组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>测试通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1157,8 +1161,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1245,7 +1249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1280,16 +1284,22 @@
       <c r="L2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="20"/>
+      <c r="M2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="23"/>
       <c r="T2" s="24"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1339,7 +1349,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1389,7 +1399,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1424,16 +1434,22 @@
       <c r="L5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="20"/>
+      <c r="M5" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1483,7 +1499,7 @@
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1533,7 +1549,7 @@
       <c r="S7" s="23"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1583,7 +1599,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1633,7 +1649,7 @@
       <c r="S9" s="23"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1683,7 +1699,7 @@
       <c r="S10" s="23"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1733,7 +1749,7 @@
       <c r="S11" s="23"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1783,7 +1799,7 @@
       <c r="S12" s="23"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1833,7 +1849,7 @@
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1883,7 +1899,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1933,7 +1949,7 @@
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1983,7 +1999,7 @@
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2018,16 +2034,22 @@
       <c r="L17" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="20"/>
+      <c r="M17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="23"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2077,7 +2099,7 @@
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2127,7 +2149,7 @@
       <c r="S19" s="23"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2177,7 +2199,7 @@
       <c r="S20" s="23"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2227,7 +2249,7 @@
       <c r="S21" s="23"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2277,7 +2299,7 @@
       <c r="S22" s="23"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2312,16 +2334,22 @@
       <c r="L23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="20"/>
+      <c r="M23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="23"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2371,7 +2399,7 @@
       <c r="S24" s="23"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2421,7 +2449,7 @@
       <c r="S25" s="23"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2456,16 +2484,22 @@
       <c r="L26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="20"/>
+      <c r="M26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="23"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2500,16 +2534,22 @@
       <c r="L27" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="20"/>
+      <c r="M27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="23"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2544,16 +2584,22 @@
       <c r="L28" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="20"/>
+      <c r="M28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="23"/>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2588,16 +2634,22 @@
       <c r="L29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="20"/>
+      <c r="M29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="23"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2647,7 +2699,7 @@
       <c r="S30" s="23"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2682,16 +2734,22 @@
       <c r="L31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="20"/>
+      <c r="M31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="23"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2726,16 +2784,22 @@
       <c r="L32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="20"/>
+      <c r="M32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="23"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2770,16 +2834,22 @@
       <c r="L33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="20"/>
+      <c r="M33" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="23"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -2814,16 +2884,22 @@
       <c r="L34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="20"/>
+      <c r="M34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="23"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2858,16 +2934,22 @@
       <c r="L35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="20"/>
+      <c r="M35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="23"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -2917,7 +2999,7 @@
       <c r="S36" s="23"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -2952,16 +3034,22 @@
       <c r="L37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="20"/>
+      <c r="M37" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="23"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2996,16 +3084,22 @@
       <c r="L38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="20"/>
+      <c r="M38" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
       <c r="S38" s="23"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -3040,16 +3134,22 @@
       <c r="L39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="20"/>
+      <c r="M39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
       <c r="S39" s="23"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="33" hidden="1">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -3084,9 +3184,15 @@
       <c r="L40" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M40" s="20"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="20"/>
+      <c r="M40" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" s="16">
+        <v>42576</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
@@ -6100,7 +6206,7 @@
   <autoFilter ref="A1:S40">
     <filterColumn colId="11">
       <filters>
-        <filter val="周蓉"/>
+        <filter val="吴永余"/>
       </filters>
     </filterColumn>
   </autoFilter>
